--- a/wiki/N-DAP_PINOUT.xlsx
+++ b/wiki/N-DAP_PINOUT.xlsx
@@ -156,10 +156,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,6 +168,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FF008000"/>
+      <color rgb="FF00FFFF"/>
       <color rgb="FF0066FF"/>
       <color rgb="FFFF0066"/>
       <color rgb="FF00FF00"/>
@@ -928,7 +931,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF99"/>
+          <a:srgbClr val="FFCC99"/>
         </a:solidFill>
         <a:ln w="9525"/>
       </xdr:spPr>
@@ -1294,7 +1297,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF99"/>
+          <a:srgbClr val="FFCC99"/>
         </a:solidFill>
         <a:ln w="9525"/>
       </xdr:spPr>
@@ -1818,14 +1821,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>129749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>217252</xdr:colOff>
+      <xdr:colOff>217253</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>73464</xdr:rowOff>
     </xdr:to>
@@ -1836,8 +1839,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="881063" y="3213468"/>
-          <a:ext cx="2860439" cy="163980"/>
+          <a:off x="440531" y="3213468"/>
+          <a:ext cx="3300972" cy="163980"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1879,8 +1882,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>131113</xdr:rowOff>
     </xdr:from>
@@ -1897,8 +1900,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="881064" y="3435097"/>
-          <a:ext cx="2863452" cy="165688"/>
+          <a:off x="440531" y="3435097"/>
+          <a:ext cx="3303985" cy="165688"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2065,7 +2068,7 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>124428</xdr:rowOff>
@@ -2083,8 +2086,296 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="881063" y="2327084"/>
-          <a:ext cx="881370" cy="163981"/>
+          <a:off x="440531" y="2327084"/>
+          <a:ext cx="1321902" cy="163981"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="008000"/>
+        </a:solidFill>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100">
+              <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>TARGET-RX</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>216995</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>77580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="Rounded Rectangle 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="440531" y="2556787"/>
+          <a:ext cx="1318323" cy="163981"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="008000"/>
+        </a:solidFill>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100">
+              <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>TARGET-TX</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3572</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>3572</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Connector 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1765697" y="2868216"/>
+          <a:ext cx="2202656" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>3571</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>140890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3572</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>84606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rounded Rectangle 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3087290" y="2784078"/>
+          <a:ext cx="660798" cy="163981"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100">
+              <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>P0.02</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6259</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>126885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>220182</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>70602</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rounded Rectangle 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1988650" y="2770073"/>
+          <a:ext cx="874720" cy="163982"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00FF00"/>
+        </a:solidFill>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100">
+              <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>CAP0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>125530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5954</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69246</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rounded Rectangle 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="440531" y="2768718"/>
+          <a:ext cx="1327548" cy="163981"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2117,7 +2408,7 @@
             <a:rPr lang="en-IE" sz="1100">
               <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
             </a:rPr>
-            <a:t>TGT-RX</a:t>
+            <a:t>TARGET-RESET</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2126,26 +2417,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>220265</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133865</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>216775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>216994</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>77580</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160490</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="Rounded Rectangle 87"/>
+        <xdr:cNvPr id="46" name="Rounded Rectangle 45"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="881062" y="2556787"/>
-          <a:ext cx="877791" cy="163981"/>
+          <a:off x="433552" y="4118741"/>
+          <a:ext cx="2384534" cy="160490"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2178,8 +2469,297 @@
             <a:rPr lang="en-IE" sz="1100">
               <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
             </a:rPr>
-            <a:t>TGT-TX</a:t>
+            <a:t>BLUE:</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" baseline="0">
+              <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t> SWD PROGRAM/DEBUG</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IE" sz="1100">
+            <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160491</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rounded Rectangle 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="433552" y="4335517"/>
+          <a:ext cx="2601310" cy="160491"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="008000"/>
+        </a:solidFill>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100">
+              <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>GREEN:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" baseline="0">
+              <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t> UART TO HOST VIA USB</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IE" sz="1100">
+            <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>216775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>163981</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rounded Rectangle 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3901966" y="4118741"/>
+          <a:ext cx="1300657" cy="163981"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100">
+              <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>YELLOW:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" baseline="0">
+              <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>  GPIO</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IE" sz="1100">
+            <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>6343</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>216775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160492</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rounded Rectangle 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3908309" y="4335517"/>
+          <a:ext cx="3245294" cy="160492"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00FF00"/>
+        </a:solidFill>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100">
+              <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>LGREEN:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" baseline="0">
+              <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t> ALTERNATIVE FUNCTIONALITY</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IE" sz="1100">
+            <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>216775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160493</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rounded Rectangle 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3901966" y="4552293"/>
+          <a:ext cx="3251637" cy="160493"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCC99"/>
+        </a:solidFill>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100">
+              <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>PORANGE:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" baseline="0">
+              <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t> FUTURE MBED FUNCTIONALITY</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IE" sz="1100">
+            <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2480,52 +3060,52 @@
   </sheetPr>
   <dimension ref="A1:AQ44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AL22" sqref="AL22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:43" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
       <c r="AH1" s="4"/>
     </row>
     <row r="2" spans="1:43" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2825,7 +3405,9 @@
       <c r="AQ9" s="4"/>
     </row>
     <row r="10" spans="1:43" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2864,10 +3446,12 @@
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
-      <c r="AQ10" s="10"/>
+      <c r="AQ10" s="9"/>
     </row>
     <row r="11" spans="1:43" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -2909,7 +3493,9 @@
       <c r="AQ11" s="5"/>
     </row>
     <row r="12" spans="1:43" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -2951,7 +3537,9 @@
       <c r="AQ12" s="5"/>
     </row>
     <row r="13" spans="1:43" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -2993,7 +3581,9 @@
       <c r="AQ13" s="5"/>
     </row>
     <row r="14" spans="1:43" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -3035,7 +3625,9 @@
       <c r="AQ14" s="5"/>
     </row>
     <row r="15" spans="1:43" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -3077,7 +3669,9 @@
       <c r="AQ15" s="5"/>
     </row>
     <row r="16" spans="1:43" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -3119,7 +3713,9 @@
       <c r="AQ16" s="5"/>
     </row>
     <row r="17" spans="1:43" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -3161,7 +3757,9 @@
       <c r="AQ17" s="5"/>
     </row>
     <row r="18" spans="1:43" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -3203,6 +3801,9 @@
       <c r="AQ18" s="8"/>
     </row>
     <row r="19" spans="1:43" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -3237,10 +3838,15 @@
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="5"/>
     </row>
     <row r="20" spans="1:43" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -3273,10 +3879,19 @@
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="5"/>
     </row>
     <row r="21" spans="1:43" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -3309,42 +3924,60 @@
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="5"/>
     </row>
     <row r="22" spans="1:43" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7"/>
+      <c r="AQ22" s="8"/>
     </row>
     <row r="23" spans="1:43" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
